--- a/Ubah No Telp Data.xlsx
+++ b/Ubah No Telp Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>oldNoTelp</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>newPhoneNoShort</t>
+  </si>
+  <si>
+    <t>abc12345</t>
+  </si>
+  <si>
+    <t>oldPhoneMixed</t>
+  </si>
+  <si>
+    <t>newPhoneMixed</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>otpWrong</t>
   </si>
 </sst>
 </file>
@@ -378,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +467,59 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ubah No Telp Data.xlsx
+++ b/Ubah No Telp Data.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>oldNoTelp</t>
   </si>
@@ -62,25 +62,19 @@
     <t>newPhoneNoShort</t>
   </si>
   <si>
-    <t>abc12345</t>
-  </si>
-  <si>
-    <t>oldPhoneMixed</t>
-  </si>
-  <si>
-    <t>newPhoneMixed</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
-    <t>otpWrong</t>
+    <t>081325184829</t>
+  </si>
+  <si>
+    <t>081228910272</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,20 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -431,9 +425,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -442,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -453,9 +447,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -467,57 +461,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Ubah No Telp Data.xlsx
+++ b/Ubah No Telp Data.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>oldNoTelp</t>
   </si>
@@ -62,19 +62,25 @@
     <t>newPhoneNoShort</t>
   </si>
   <si>
+    <t>abc12345</t>
+  </si>
+  <si>
+    <t>oldPhoneMixed</t>
+  </si>
+  <si>
+    <t>newPhoneMixed</t>
+  </si>
+  <si>
     <t>success</t>
   </si>
   <si>
-    <t>081325184829</t>
-  </si>
-  <si>
-    <t>081228910272</t>
+    <t>otpWrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,20 +393,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,9 +431,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -436,7 +442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -447,9 +453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -461,15 +467,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Ubah No Telp Data.xlsx
+++ b/Ubah No Telp Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>oldNoTelp</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>otpWrong</t>
+  </si>
+  <si>
+    <t>otp</t>
   </si>
 </sst>
 </file>
@@ -393,20 +396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,109 +418,118 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>333333</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9">
+        <v>261294</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
